--- a/data/WASPAS_Data_chopper.xlsx
+++ b/data/WASPAS_Data_chopper.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="126">
   <si>
-    <t xml:space="preserve">cu</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">Cost</t>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Benefit</t>
   </si>
   <si>
-    <t xml:space="preserve">flavio</t>
+    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">0.047</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">0.068</t>
   </si>
   <si>
-    <t xml:space="preserve">Will</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve"> Price (US$)</t>
@@ -518,7 +518,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
